--- a/biology/Médecine/1766_en_santé_et_médecine/1766_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1766_en_santé_et_médecine/1766_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1766_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1766_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1766 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1766_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1766_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Louis XV nomme Pierre Bayen apothicaire major des camps et armées[1].
-Franz-Anton Mesmer (1734-1815) passe sa thèse Dissertatio Physico-Medica De Planetarum Influxu[2] à Vienne sous la direction de Gerard van Swieten (1700-1772)[3].
-Paul-Jacques Malouin devient pensionnaire chimiste à l’Académie royale des sciences de Paris[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Louis XV nomme Pierre Bayen apothicaire major des camps et armées.
+Franz-Anton Mesmer (1734-1815) passe sa thèse Dissertatio Physico-Medica De Planetarum Influxu à Vienne sous la direction de Gerard van Swieten (1700-1772).
+Paul-Jacques Malouin devient pensionnaire chimiste à l’Académie royale des sciences de Paris.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1766_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1766_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6 novembre : Carlo Botta (mort en 1837), médecin et historien italien[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>6 novembre : Carlo Botta (mort en 1837), médecin et historien italien.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1766_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1766_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>15 avril : Robert Whytt (né en 1714), médecin écossais[6].
-5 mai : Jean Astruc (né en 1684), médecin théoricien français[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>15 avril : Robert Whytt (né en 1714), médecin écossais.
+5 mai : Jean Astruc (né en 1684), médecin théoricien français.</t>
         </is>
       </c>
     </row>
